--- a/asd.xlsx
+++ b/asd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkStage\github\whitesnow888\automationtool-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545A8EC5-E573-4AC4-9DB9-89FC50312EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7CF7F-13B0-4F01-8FB6-757D9A056AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="2295" windowWidth="10335" windowHeight="11385" xr2:uid="{4363FA73-9CC1-44AC-ABED-E4F9B3F6A020}"/>
+    <workbookView xWindow="12615" yWindow="2895" windowWidth="9255" windowHeight="10425" xr2:uid="{4363FA73-9CC1-44AC-ABED-E4F9B3F6A020}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="46">
   <si>
     <t>国籍(1)</t>
     <rPh sb="0" eb="2">
@@ -52,9 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>住所（都道府県）</t>
-  </si>
-  <si>
     <t>住所（町・大字）</t>
   </si>
   <si>
@@ -101,13 +98,101 @@
   </si>
   <si>
     <t>日本の免許証(有効期限がきれたものも含む)の有無を選択してください</t>
+  </si>
+  <si>
+    <t>あり</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>四輪車取得年</t>
+  </si>
+  <si>
+    <t>出国年</t>
+  </si>
+  <si>
+    <t>滞在日数</t>
+  </si>
+  <si>
+    <t>入国年</t>
+  </si>
+  <si>
+    <t>二輪車取得年</t>
+  </si>
+  <si>
+    <t>現在、日本の運転免許は停止処分中ですか？</t>
+  </si>
+  <si>
+    <t>運転免許に関する処分について</t>
+  </si>
+  <si>
+    <t>日本国内で無免許運転、酒気帯び・酒酔い運転、救護義務違反をしたことがありますか？</t>
+  </si>
+  <si>
+    <t>日本語により、日常会話のほか、質問に対する的確な応答ができますか？</t>
+  </si>
+  <si>
+    <t>通訳者の氏</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>日本に住民票がありますか？</t>
+  </si>
+  <si>
+    <t>在留カードは持っていますか？</t>
+  </si>
+  <si>
+    <t>在留カードの番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在留カードの有効期限 </t>
+  </si>
+  <si>
+    <t>在留資格</t>
+  </si>
+  <si>
+    <t>港区</t>
+  </si>
+  <si>
+    <t>浜松町</t>
+    <rPh sb="0" eb="3">
+      <t>ハママツチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１丁目</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>はい</t>
+  </si>
+  <si>
+    <t>持っている</t>
+  </si>
+  <si>
+    <t>住所（番・番地・号）</t>
+  </si>
+  <si>
+    <t>qweqweqwe</t>
+  </si>
+  <si>
+    <t>いいえ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +207,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans JP"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,11 +237,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,15 +581,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DDCEEF-2EB2-4E87-AA63-4804B23D4709}">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="60.25" customWidth="1"/>
+    <col min="1" max="1" width="31.625" customWidth="1"/>
     <col min="2" max="2" width="21.625" customWidth="1"/>
     <col min="3" max="7" width="17.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.25" customWidth="1"/>
@@ -517,10 +611,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1">
+        <v>123</v>
+      </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>123</v>
       </c>
       <c r="H2" s="1"/>
       <c r="P2" s="1"/>
@@ -540,89 +640,798 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1234567</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>20250702</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>924335822</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>20200101</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>20200202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B17">
+        <v>20200303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="B18">
+        <v>20200110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>18</v>
+      </c>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>19</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>20</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>19</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96">
+        <v>1234567</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B97" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B98" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100">
+        <v>20221202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>36</v>
+      </c>
+      <c r="B101" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/asd.xlsx
+++ b/asd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkStage\github\whitesnow888\automationtool-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB7CF7F-13B0-4F01-8FB6-757D9A056AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5FEE5C-52A2-4F76-B50E-47411496AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="2895" windowWidth="9255" windowHeight="10425" xr2:uid="{4363FA73-9CC1-44AC-ABED-E4F9B3F6A020}"/>
+    <workbookView xWindow="5880" yWindow="4395" windowWidth="9255" windowHeight="10425" xr2:uid="{4363FA73-9CC1-44AC-ABED-E4F9B3F6A020}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,7 +584,7 @@
   <dimension ref="A1:AD101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A84" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
